--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -29,7 +29,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -38,12 +38,6 @@
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,14 +48,8 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -393,7 +381,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -402,26 +390,14 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
-    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
-    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2"/>
-      <c r="C1" t="s" s="2"/>
-    </row>
-    <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="2"/>
-      <c r="B2" t="s" s="2"/>
-      <c r="C2" t="s" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>I am a cell!</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -397,6 +397,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" outlineLevel="0">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>0</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,7 +377,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -390,17 +386,16 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
+      <c r="A1" t="s" s="0"/>
+      <c r="B1" t="s" s="0"/>
     </row>
     <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="0">
-        <v>0</v>
-      </c>
+      <c r="A2" t="s" s="0"/>
+      <c r="B2" t="s" s="0"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -377,7 +377,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -387,15 +387,18 @@
   <cols>
     <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
     <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
       <c r="A1" t="s" s="0"/>
       <c r="B1" t="s" s="0"/>
+      <c r="C1" t="s" s="0"/>
     </row>
     <row r="2" outlineLevel="0">
       <c r="A2" t="s" s="0"/>
       <c r="B2" t="s" s="0"/>
+      <c r="C2" t="s" s="0"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Potions</t>
+  </si>
+  <si>
+    <t>Snape</t>
+  </si>
+  <si>
+    <t>1DS15IS001
+1DS15IS002
+1DS15IS003
+</t>
+  </si>
+  <si>
+    <t>Care of Magical Creatures</t>
+  </si>
+  <si>
+    <t>Hagrid</t>
+  </si>
+  <si>
+    <t>1DS15IS004
+1DS15IS005
+1DS15IS006</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,14 +415,26 @@
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="0"/>
-      <c r="B1" t="s" s="0"/>
-      <c r="C1" t="s" s="0"/>
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="0"/>
-      <c r="B2" t="s" s="0"/>
-      <c r="C2" t="s" s="0"/>
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -15,6 +15,15 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>teamMembers</t>
+  </si>
   <si>
     <t>Potions</t>
   </si>
@@ -401,7 +410,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -436,6 +445,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" outlineLevel="0">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -46,6 +46,22 @@
     <t>1DS15IS004
 1DS15IS005
 1DS15IS006</t>
+  </si>
+  <si>
+    <t>Charms</t>
+  </si>
+  <si>
+    <t>Flitwick</t>
+  </si>
+  <si>
+    <t>Guide: HOHO
+Team: 1DS15IS019, 1DS15IS007, 1DS15IS021</t>
+  </si>
+  <si>
+    <t>How to betray the most evil Wizard of all time while keeping a straight face</t>
+  </si>
+  <si>
+    <t>NISCHAL</t>
   </si>
 </sst>
 </file>
@@ -410,7 +426,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -456,6 +472,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" outlineLevel="0">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="0">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -25,43 +25,40 @@
     <t>teamMembers</t>
   </si>
   <si>
-    <t>Potions</t>
+    <t>Killing Dumbledore 101</t>
   </si>
   <si>
     <t>Snape</t>
   </si>
   <si>
-    <t>1DS15IS001
-1DS15IS002
-1DS15IS003
-</t>
-  </si>
-  <si>
-    <t>Care of Magical Creatures</t>
-  </si>
-  <si>
-    <t>Hagrid</t>
-  </si>
-  <si>
-    <t>1DS15IS004
-1DS15IS005
-1DS15IS006</t>
-  </si>
-  <si>
-    <t>Charms</t>
+    <t>1DS15IS061
+1DS15IS062</t>
+  </si>
+  <si>
+    <t>Swish and Flick</t>
   </si>
   <si>
     <t>Flitwick</t>
   </si>
   <si>
-    <t>Guide: HOHO
-Team: 1DS15IS019, 1DS15IS007, 1DS15IS021</t>
-  </si>
-  <si>
-    <t>How to betray the most evil Wizard of all time while keeping a straight face</t>
-  </si>
-  <si>
-    <t>NISCHAL</t>
+    <t>1DS15IS063
+1DS15IS064</t>
+  </si>
+  <si>
+    <t>Transfiguration</t>
+  </si>
+  <si>
+    <t>Minerva</t>
+  </si>
+  <si>
+    <t>1DS15IS065</t>
+  </si>
+  <si>
+    <t>Defence Against The Dark Arts</t>
+  </si>
+  <si>
+    <t>1DS16IS003
+1DS16IS004</t>
   </si>
 </sst>
 </file>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -16,13 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>teamMembers</t>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>USN1</t>
+  </si>
+  <si>
+    <t>USN2</t>
+  </si>
+  <si>
+    <t>USN3</t>
+  </si>
+  <si>
+    <t>USN4</t>
   </si>
   <si>
     <t>Killing Dumbledore 101</t>
@@ -31,8 +40,10 @@
     <t>Snape</t>
   </si>
   <si>
-    <t>1DS15IS061
-1DS15IS062</t>
+    <t>1DS15IS061</t>
+  </si>
+  <si>
+    <t>1DS15IS062</t>
   </si>
   <si>
     <t>Swish and Flick</t>
@@ -41,8 +52,10 @@
     <t>Flitwick</t>
   </si>
   <si>
-    <t>1DS15IS063
-1DS15IS064</t>
+    <t>1DS15IS063</t>
+  </si>
+  <si>
+    <t>1DS15IS064</t>
   </si>
   <si>
     <t>Transfiguration</t>
@@ -57,8 +70,34 @@
     <t>Defence Against The Dark Arts</t>
   </si>
   <si>
-    <t>1DS16IS003
-1DS16IS004</t>
+    <t>1DS16IS003</t>
+  </si>
+  <si>
+    <t>1DS16IS004</t>
+  </si>
+  <si>
+    <t>How to bring statues to life</t>
+  </si>
+  <si>
+    <t>1DS15IS033</t>
+  </si>
+  <si>
+    <t>1DS15IS044</t>
+  </si>
+  <si>
+    <t>It's Levi-oh-sah, not Levio-sah</t>
+  </si>
+  <si>
+    <t>Hermione</t>
+  </si>
+  <si>
+    <t>1DS16IS444</t>
+  </si>
+  <si>
+    <t>How to betray the most evil Wizard of all time while keeping a straight face</t>
+  </si>
+  <si>
+    <t>1DS16IS033</t>
   </si>
 </sst>
 </file>
@@ -423,7 +462,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -434,6 +473,9 @@
     <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
     <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
     <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="4" max="4" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="5" max="5" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="6" max="6" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
@@ -446,49 +488,103 @@
       <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" outlineLevel="0">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="3" outlineLevel="0">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="4" outlineLevel="0">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" outlineLevel="0">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" outlineLevel="0">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="0">
+      <c r="A7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" outlineLevel="0">
+      <c r="A8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>1DS16IS033</t>
+  </si>
+  <si>
+    <t>Charms</t>
+  </si>
+  <si>
+    <t>1DS15IS071</t>
+  </si>
+  <si>
+    <t>1DS15IS072</t>
+  </si>
+  <si>
+    <t>1DS15IS073</t>
+  </si>
+  <si>
+    <t>1DS15IS074</t>
   </si>
 </sst>
 </file>
@@ -462,7 +477,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -587,6 +602,26 @@
         <v>27</v>
       </c>
     </row>
+    <row r="9" outlineLevel="0">
+      <c r="A9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -34,85 +34,19 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>Killing Dumbledore 101</t>
-  </si>
-  <si>
-    <t>Snape</t>
-  </si>
-  <si>
-    <t>1DS15IS061</t>
-  </si>
-  <si>
-    <t>1DS15IS062</t>
-  </si>
-  <si>
-    <t>Swish and Flick</t>
-  </si>
-  <si>
-    <t>Flitwick</t>
-  </si>
-  <si>
-    <t>1DS15IS063</t>
-  </si>
-  <si>
-    <t>1DS15IS064</t>
-  </si>
-  <si>
-    <t>Transfiguration</t>
-  </si>
-  <si>
-    <t>Minerva</t>
-  </si>
-  <si>
-    <t>1DS15IS065</t>
-  </si>
-  <si>
-    <t>Defence Against The Dark Arts</t>
-  </si>
-  <si>
-    <t>1DS16IS003</t>
-  </si>
-  <si>
-    <t>1DS16IS004</t>
-  </si>
-  <si>
-    <t>How to bring statues to life</t>
-  </si>
-  <si>
-    <t>1DS15IS033</t>
-  </si>
-  <si>
-    <t>1DS15IS044</t>
-  </si>
-  <si>
-    <t>It's Levi-oh-sah, not Levio-sah</t>
-  </si>
-  <si>
-    <t>Hermione</t>
-  </si>
-  <si>
-    <t>1DS16IS444</t>
-  </si>
-  <si>
-    <t>How to betray the most evil Wizard of all time while keeping a straight face</t>
-  </si>
-  <si>
-    <t>1DS16IS033</t>
-  </si>
-  <si>
-    <t>Charms</t>
-  </si>
-  <si>
-    <t>1DS15IS071</t>
-  </si>
-  <si>
-    <t>1DS15IS072</t>
-  </si>
-  <si>
-    <t>1DS15IS073</t>
-  </si>
-  <si>
-    <t>1DS15IS074</t>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1DS15IS001</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>1DS15IS002</t>
   </si>
 </sst>
 </file>
@@ -477,7 +411,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -524,102 +458,27 @@
         <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="3" outlineLevel="0">
       <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" outlineLevel="0">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="0">
-      <c r="A5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="0">
-      <c r="A6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" outlineLevel="0">
-      <c r="A7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" outlineLevel="0">
-      <c r="A8" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" outlineLevel="0">
-      <c r="A9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
     <t>Project Title</t>
   </si>
   <si>
@@ -34,10 +40,16 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>Project1</t>
-  </si>
-  <si>
-    <t>Guide1</t>
+    <t>2018-08-20T04:37:59.249Z</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.120,::ffff:10.10.10.105</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>1DS15IS001</t>
@@ -49,10 +61,10 @@
     <t>1DS15IS003</t>
   </si>
   <si>
-    <t>182.72.191.26,::ffff:10.10.10.149,::ffff:10.10.10.170</t>
-  </si>
-  <si>
-    <t>Project4</t>
+    <t>2018-08-20T04:38:24.199Z</t>
+  </si>
+  <si>
+    <t>p3</t>
   </si>
   <si>
     <t>1DS15IS004</t>
@@ -426,7 +438,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -440,6 +452,8 @@
     <col min="4" max="4" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
     <col min="5" max="5" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
     <col min="6" max="6" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="7" max="7" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="8" max="8" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
@@ -461,45 +475,57 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" outlineLevel="0">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="3" outlineLevel="0">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -40,10 +40,10 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>2018-08-20T04:37:59.249Z</t>
-  </si>
-  <si>
-    <t>182.72.191.26,::ffff:10.10.11.120,::ffff:10.10.10.105</t>
+    <t>8/20/2018, 5:18:01 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.149,::ffff:10.10.10.24</t>
   </si>
   <si>
     <t>p1</t>
@@ -59,21 +59,6 @@
   </si>
   <si>
     <t>1DS15IS003</t>
-  </si>
-  <si>
-    <t>2018-08-20T04:38:24.199Z</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>1DS15IS004</t>
-  </si>
-  <si>
-    <t>1DS15IS005</t>
-  </si>
-  <si>
-    <t>1DS15IS006</t>
   </si>
 </sst>
 </file>
@@ -438,7 +423,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -505,29 +490,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" outlineLevel="0">
-      <c r="A3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -59,6 +59,45 @@
   </si>
   <si>
     <t>1DS15IS003</t>
+  </si>
+  <si>
+    <t>8/20/2018, 5:18:59 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.149,::ffff:10.10.10.177</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>1DS15IS101</t>
+  </si>
+  <si>
+    <t>1DS15IS102</t>
+  </si>
+  <si>
+    <t>1DS15IS103</t>
+  </si>
+  <si>
+    <t>8/20/2018, 5:19:11 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.120,::ffff:10.10.10.105</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1DS15IS004</t>
+  </si>
+  <si>
+    <t>1DS15IS005</t>
+  </si>
+  <si>
+    <t>1DS15IS006</t>
   </si>
 </sst>
 </file>
@@ -423,7 +462,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -490,6 +529,52 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" outlineLevel="0">
+      <c r="A3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" outlineLevel="0">
+      <c r="A4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -40,16 +40,34 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>8/20/2018, 5:18:01 AM</t>
-  </si>
-  <si>
-    <t>182.71.135.170,::ffff:10.10.10.149,::ffff:10.10.10.24</t>
+    <t>9/1/2018, 6:26:08 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.182</t>
   </si>
   <si>
     <t>p1</t>
   </si>
   <si>
-    <t>A</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1DS15IS004</t>
+  </si>
+  <si>
+    <t>1DS15IS005</t>
+  </si>
+  <si>
+    <t>1DS15IS006</t>
+  </si>
+  <si>
+    <t>9/1/2018, 6:27:04 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.231</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
   <si>
     <t>1DS15IS001</t>
@@ -61,43 +79,22 @@
     <t>1DS15IS003</t>
   </si>
   <si>
-    <t>8/20/2018, 5:18:59 AM</t>
-  </si>
-  <si>
-    <t>182.71.135.170,::ffff:10.10.10.149,::ffff:10.10.10.177</t>
+    <t>9/1/2018, 6:27:47 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.254</t>
   </si>
   <si>
     <t>p3</t>
   </si>
   <si>
-    <t>1DS15IS101</t>
-  </si>
-  <si>
-    <t>1DS15IS102</t>
-  </si>
-  <si>
-    <t>1DS15IS103</t>
-  </si>
-  <si>
-    <t>8/20/2018, 5:19:11 AM</t>
-  </si>
-  <si>
-    <t>182.72.191.26,::ffff:10.10.11.120,::ffff:10.10.10.105</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>1DS15IS004</t>
-  </si>
-  <si>
-    <t>1DS15IS005</t>
-  </si>
-  <si>
-    <t>1DS15IS006</t>
+    <t>1DS15IS009</t>
+  </si>
+  <si>
+    <t>1DS15IS008</t>
+  </si>
+  <si>
+    <t>1DS15IS007</t>
   </si>
 </sst>
 </file>
@@ -563,16 +560,16 @@
         <v>23</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -40,16 +40,34 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/1/2018, 6:26:08 AM</t>
-  </si>
-  <si>
-    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.182</t>
+    <t>9/3/2018, 6:15:00 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.31</t>
   </si>
   <si>
     <t>p1</t>
   </si>
   <si>
-    <t>B</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1DS15IS001</t>
+  </si>
+  <si>
+    <t>1DS15IS002</t>
+  </si>
+  <si>
+    <t>1DS15IS003</t>
+  </si>
+  <si>
+    <t>9/3/2018, 6:19:58 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.231</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
   <si>
     <t>1DS15IS004</t>
@@ -59,42 +77,6 @@
   </si>
   <si>
     <t>1DS15IS006</t>
-  </si>
-  <si>
-    <t>9/1/2018, 6:27:04 AM</t>
-  </si>
-  <si>
-    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.231</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>1DS15IS001</t>
-  </si>
-  <si>
-    <t>1DS15IS002</t>
-  </si>
-  <si>
-    <t>1DS15IS003</t>
-  </si>
-  <si>
-    <t>9/1/2018, 6:27:47 AM</t>
-  </si>
-  <si>
-    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.254</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>1DS15IS009</t>
-  </si>
-  <si>
-    <t>1DS15IS008</t>
-  </si>
-  <si>
-    <t>1DS15IS007</t>
   </si>
 </sst>
 </file>
@@ -459,7 +441,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -549,29 +531,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" outlineLevel="0">
-      <c r="A4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -28,6 +28,24 @@
     <t>Guide</t>
   </si>
   <si>
+    <t>Choice 1</t>
+  </si>
+  <si>
+    <t>Guide 1</t>
+  </si>
+  <si>
+    <t>Choice 2</t>
+  </si>
+  <si>
+    <t>Guide 2</t>
+  </si>
+  <si>
+    <t>Choice 3</t>
+  </si>
+  <si>
+    <t>Guide 3</t>
+  </si>
+  <si>
     <t>USN1</t>
   </si>
   <si>
@@ -40,16 +58,25 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/3/2018, 6:15:00 AM</t>
-  </si>
-  <si>
-    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.31</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>9/3/2018, 6:12:45 PM</t>
+  </si>
+  <si>
+    <t>49.206.11.12,::ffff:10.10.10.247,::ffff:10.10.10.182</t>
+  </si>
+  <si>
+    <t>Blockchain in PDS and rural industries</t>
+  </si>
+  <si>
+    <t>Ms. SHARON CHRISTA I.L</t>
+  </si>
+  <si>
+    <t>Intelligent theft managment system using image processing technique</t>
+  </si>
+  <si>
+    <t>Mr. DHEEMANTH URS</t>
+  </si>
+  <si>
+    <t>Paperless tickets for indian transportation system</t>
   </si>
   <si>
     <t>1DS15IS001</t>
@@ -59,24 +86,6 @@
   </si>
   <si>
     <t>1DS15IS003</t>
-  </si>
-  <si>
-    <t>9/3/2018, 6:19:58 AM</t>
-  </si>
-  <si>
-    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.231</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>1DS15IS004</t>
-  </si>
-  <si>
-    <t>1DS15IS005</t>
-  </si>
-  <si>
-    <t>1DS15IS006</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -457,6 +466,12 @@
     <col min="6" max="6" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
     <col min="7" max="7" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
     <col min="8" max="8" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="9" max="9" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="10" max="10" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="11" max="11" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="12" max="12" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="13" max="13" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="14" max="14" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
@@ -484,51 +499,64 @@
       <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" outlineLevel="0">
       <c r="A2" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" outlineLevel="0">
-      <c r="A3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>20</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -58,34 +58,505 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/3/2018, 6:12:45 PM</t>
-  </si>
-  <si>
-    <t>49.206.11.12,::ffff:10.10.10.247,::ffff:10.10.10.182</t>
+    <t>9/4/2018, 5:38:26 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.10.247,::ffff:10.10.10.182</t>
+  </si>
+  <si>
+    <t>Sound Regeneration using GAN's</t>
+  </si>
+  <si>
+    <t>Ms. SHARON CHRISTA I.L</t>
   </si>
   <si>
     <t>Blockchain in PDS and rural industries</t>
   </si>
   <si>
-    <t>Ms. SHARON CHRISTA I.L</t>
+    <t>Secured certificates and marksheets using blockchain</t>
+  </si>
+  <si>
+    <t>1DS16IS041</t>
+  </si>
+  <si>
+    <t>1DS16IS040</t>
+  </si>
+  <si>
+    <t>1DS16IS031</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:38:46 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.11.196,::ffff:10.10.10.57</t>
+  </si>
+  <si>
+    <t>Paperless tickets for indian transportation system</t>
+  </si>
+  <si>
+    <t>Mr. DHEEMANTH URS</t>
+  </si>
+  <si>
+    <t>Automatic patient enrolment software for hospitals</t>
+  </si>
+  <si>
+    <t>Offline signature verification system</t>
+  </si>
+  <si>
+    <t>Ms. KRUPASHANKARI .S.S</t>
+  </si>
+  <si>
+    <t>1DS16IS001</t>
+  </si>
+  <si>
+    <t>1DS16IS002</t>
+  </si>
+  <si>
+    <t>1DS16IS003</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:39:11 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.31</t>
+  </si>
+  <si>
+    <t>Natural Language Processing using Tensor Flow</t>
+  </si>
+  <si>
+    <t>Dr. SUNANDA DIXIT</t>
+  </si>
+  <si>
+    <t>Big Data analytics for scientific computing</t>
+  </si>
+  <si>
+    <t>Ms. RADHIKA T. V.</t>
+  </si>
+  <si>
+    <t>1DS16IS037</t>
+  </si>
+  <si>
+    <t>1DS16IS026</t>
+  </si>
+  <si>
+    <t>1DS16IS027</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:39:46 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.254</t>
+  </si>
+  <si>
+    <t>Image Compression Using Wavelet Approach</t>
   </si>
   <si>
     <t>Intelligent theft managment system using image processing technique</t>
   </si>
   <si>
-    <t>Mr. DHEEMANTH URS</t>
-  </si>
-  <si>
-    <t>Paperless tickets for indian transportation system</t>
-  </si>
-  <si>
-    <t>1DS15IS001</t>
-  </si>
-  <si>
-    <t>1DS15IS002</t>
-  </si>
-  <si>
-    <t>1DS15IS003</t>
+    <t>Detecting fraud apps using sentiment analysis</t>
+  </si>
+  <si>
+    <t>Mr. SURESHKUMAR M.</t>
+  </si>
+  <si>
+    <t>1DS16IS024</t>
+  </si>
+  <si>
+    <t>1DS16IS063</t>
+  </si>
+  <si>
+    <t>1DS16IS036</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:40:01 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.182</t>
+  </si>
+  <si>
+    <t>Text Detection in Images Using Python</t>
+  </si>
+  <si>
+    <t>1DS16IS059</t>
+  </si>
+  <si>
+    <t>1DS16IS060</t>
+  </si>
+  <si>
+    <t>1DS16IS061</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:40:05 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.31</t>
+  </si>
+  <si>
+    <t>Matrix based shoulder surfing security system</t>
+  </si>
+  <si>
+    <t>Priority based optimal resource reservation mechanism in constrained Networks for IOT applications</t>
+  </si>
+  <si>
+    <t>Ms. SHALINI K.B</t>
+  </si>
+  <si>
+    <t>Distributed computing technologies and security issues in Big Data analytics</t>
+  </si>
+  <si>
+    <t>1DS16IS030</t>
+  </si>
+  <si>
+    <t>1DS16IS101</t>
+  </si>
+  <si>
+    <t>1DS16IS100</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:40:36 AM</t>
+  </si>
+  <si>
+    <t>An efficient algorithm to recognize the License plate of the vehicle.</t>
+  </si>
+  <si>
+    <t>Chatbots in educational system</t>
+  </si>
+  <si>
+    <t>Ms. MADHURA J.</t>
+  </si>
+  <si>
+    <t>1DS16IS033</t>
+  </si>
+  <si>
+    <t>1DS16IS034</t>
+  </si>
+  <si>
+    <t>1DS16IS044</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:44:47 AM</t>
+  </si>
+  <si>
+    <t>Dynamic resource allocation and scheduling techniques/algorithms in cloud computing environment</t>
+  </si>
+  <si>
+    <t>Segmentation and analysis of CT images for abnormality detection</t>
+  </si>
+  <si>
+    <t>Ms. BHAVANI K.</t>
+  </si>
+  <si>
+    <t>Chatbot for career guidance using AI</t>
+  </si>
+  <si>
+    <t>1DS16IS016</t>
+  </si>
+  <si>
+    <t>1DS16IS017</t>
+  </si>
+  <si>
+    <t>1DS16IS018</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:44:56 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.11.196,::ffff:10.10.10.231</t>
+  </si>
+  <si>
+    <t>Make way for ambulance a moblie application</t>
+  </si>
+  <si>
+    <t>1DS16IS015</t>
+  </si>
+  <si>
+    <t>1DS16IS019</t>
+  </si>
+  <si>
+    <t>1DS16IS043</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:45:04 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.254</t>
+  </si>
+  <si>
+    <t>IOT for women safety</t>
+  </si>
+  <si>
+    <t>Dr. SUMA V.</t>
+  </si>
+  <si>
+    <t>1DS16IS023</t>
+  </si>
+  <si>
+    <t>1DS16IS020</t>
+  </si>
+  <si>
+    <t>1DS16IS011</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:45:11 AM</t>
+  </si>
+  <si>
+    <t>Advance Predictive Machine learning model using deep learning</t>
+  </si>
+  <si>
+    <t>Anomaly detection in ATM </t>
+  </si>
+  <si>
+    <t>Ms. LATHA A.P.</t>
+  </si>
+  <si>
+    <t>IOT based real time ambulance tracking </t>
+  </si>
+  <si>
+    <t>1DS16IS021</t>
+  </si>
+  <si>
+    <t>1DS16IS048</t>
+  </si>
+  <si>
+    <t>1DS16IS045</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:45:38 AM</t>
+  </si>
+  <si>
+    <t>Customer behavior prediction using web usage mining</t>
+  </si>
+  <si>
+    <t>1DS16IS008</t>
+  </si>
+  <si>
+    <t>1DS16IS009</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:45:44 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.11.196,::ffff:10.10.10.182</t>
+  </si>
+  <si>
+    <t>Design of Biometric Recognition Software Based on Image Processing</t>
+  </si>
+  <si>
+    <t>cloud integrated smart attendance system</t>
+  </si>
+  <si>
+    <t>Ms. CHANDRAKALA B.M.</t>
+  </si>
+  <si>
+    <t>1DS15IS016</t>
+  </si>
+  <si>
+    <t>1DS15IS017</t>
+  </si>
+  <si>
+    <t>1DS15IS018</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:45:52 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.10.247,::ffff:10.10.10.231</t>
+  </si>
+  <si>
+    <t>Web based library management system using angular and springboot</t>
+  </si>
+  <si>
+    <t>automatic control of geyser using audunio and rasbery pi</t>
+  </si>
+  <si>
+    <t>Tracking multiple objects using deep learning techniques</t>
+  </si>
+  <si>
+    <t>1DS15IS010</t>
+  </si>
+  <si>
+    <t>1DS15IS029</t>
+  </si>
+  <si>
+    <t>1DS15IS020</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:46:53 AM</t>
+  </si>
+  <si>
+    <t>Contour Based Shape Retrieval and Recognition</t>
+  </si>
+  <si>
+    <t>Mr. MUZAMEEL AHMED</t>
+  </si>
+  <si>
+    <t>Enhancement of Software Quality through Predictive model </t>
+  </si>
+  <si>
+    <t>1DS16IS0022</t>
+  </si>
+  <si>
+    <t>1DS16IS0305</t>
+  </si>
+  <si>
+    <t>1DS16IS0001</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:47:18 AM</t>
+  </si>
+  <si>
+    <t>1DS16IS331</t>
+  </si>
+  <si>
+    <t>1DS16IS332</t>
+  </si>
+  <si>
+    <t>1DS16IS310</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:47:19 AM</t>
+  </si>
+  <si>
+    <t>smartphone app develops an instant translation of a Indian street sign</t>
+  </si>
+  <si>
+    <t>1DS16IS012</t>
+  </si>
+  <si>
+    <t>1DS15IS110</t>
+  </si>
+  <si>
+    <t>1DS15IS120</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:47:34 AM</t>
+  </si>
+  <si>
+    <t>automatic street lighting using IOT</t>
+  </si>
+  <si>
+    <t>classification genre of songs</t>
+  </si>
+  <si>
+    <t>Top-down parsing for Neural Network Exchange Format (NNEF) in TensorFlow-based deep learning computation</t>
+  </si>
+  <si>
+    <t>Ms. SHILPA .D</t>
+  </si>
+  <si>
+    <t>1DS16IS055</t>
+  </si>
+  <si>
+    <t>1DS16IS010</t>
+  </si>
+  <si>
+    <t>1DS16IS099</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:47:50 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.11.196,::ffff:10.10.10.57</t>
+  </si>
+  <si>
+    <t>Computer network security issues and measures to avoid it</t>
+  </si>
+  <si>
+    <t>Ms. SONALI JOYCE LOBO</t>
+  </si>
+  <si>
+    <t>1DS15IS019</t>
+  </si>
+  <si>
+    <t>1DS15IS043</t>
+  </si>
+  <si>
+    <t>1DS15IS015</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:49:00 AM</t>
+  </si>
+  <si>
+    <t>IOT for better living style </t>
+  </si>
+  <si>
+    <t>3D model construction using multiple 2 D images</t>
+  </si>
+  <si>
+    <t>Detection and Characterization of Subsolid Juxta-pleural Lung Nodule from CT Images</t>
+  </si>
+  <si>
+    <t>1DS15IS009</t>
+  </si>
+  <si>
+    <t>1DS15IS012</t>
+  </si>
+  <si>
+    <t>1DS15IS014</t>
+  </si>
+  <si>
+    <t>9/4/2018, 5:50:36 AM</t>
+  </si>
+  <si>
+    <t>182.71.135.170,::ffff:10.10.11.196,::ffff:10.10.10.254</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning Methods for Sample based decision theoretic planning</t>
+  </si>
+  <si>
+    <t>1DS16IS111</t>
+  </si>
+  <si>
+    <t>1DS15IS115</t>
+  </si>
+  <si>
+    <t>1DS15IS124</t>
+  </si>
+  <si>
+    <t>9/4/2018, 6:08:17 AM</t>
+  </si>
+  <si>
+    <t>Low-Dose CT Image Denoising using novelfilter</t>
+  </si>
+  <si>
+    <t>Test automation in agricultural applications</t>
+  </si>
+  <si>
+    <t>Ms. BINDU BHARGAVI S.M</t>
+  </si>
+  <si>
+    <t>An implementation of energy aware and secure routing protocol in Wirless sensor/adhoc networks</t>
+  </si>
+  <si>
+    <t>1DS16IS401</t>
+  </si>
+  <si>
+    <t>1DS16IS402</t>
+  </si>
+  <si>
+    <t>1DS16IS403</t>
+  </si>
+  <si>
+    <t>9/4/2018, 6:20:56 AM</t>
+  </si>
+  <si>
+    <t>182.72.191.26,::ffff:10.10.10.247,::ffff:10.10.10.31</t>
+  </si>
+  <si>
+    <t>Novel apprach for denoising images using hybrid filters</t>
+  </si>
+  <si>
+    <t>Avoiding Excessive Power Consumption by avoiding security Attacks in Networks </t>
+  </si>
+  <si>
+    <t>1DS15IS422</t>
+  </si>
+  <si>
+    <t>1DS15IS421</t>
+  </si>
+  <si>
+    <t>1DS15IS420</t>
   </si>
 </sst>
 </file>
@@ -450,7 +921,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -541,22 +1012,924 @@
         <v>18</v>
       </c>
       <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="M2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="M2" t="s" s="0">
+    </row>
+    <row r="3" outlineLevel="0">
+      <c r="A3" t="s" s="0">
         <v>23</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" outlineLevel="0">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="0">
+      <c r="A5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" outlineLevel="0">
+      <c r="A6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="0">
+      <c r="A7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" outlineLevel="0">
+      <c r="A8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" outlineLevel="0">
+      <c r="A9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" outlineLevel="0">
+      <c r="A10" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="0">
+      <c r="A11" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" outlineLevel="0">
+      <c r="A12" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" outlineLevel="0">
+      <c r="A13" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" outlineLevel="0">
+      <c r="A14" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" outlineLevel="0">
+      <c r="A15" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="0">
+      <c r="A16" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" outlineLevel="0">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" outlineLevel="0">
+      <c r="A18" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" outlineLevel="0">
+      <c r="A19" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" outlineLevel="0">
+      <c r="A20" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="0">
+      <c r="A21" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" outlineLevel="0">
+      <c r="A22" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" outlineLevel="0">
+      <c r="A23" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" outlineLevel="0">
+      <c r="A24" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -557,6 +557,27 @@
   </si>
   <si>
     <t>1DS15IS420</t>
+  </si>
+  <si>
+    <t>9/4/2018, 6:54:41 AM</t>
+  </si>
+  <si>
+    <t>Combinatorial Testing of ACTS: A Case Study</t>
+  </si>
+  <si>
+    <t>Ms. REKHA JAYARAM</t>
+  </si>
+  <si>
+    <t>An implementation of reliable routing protocol in Wirless sensor/adhoc networks</t>
+  </si>
+  <si>
+    <t>1DS15IS001</t>
+  </si>
+  <si>
+    <t>1DS15IS002</t>
+  </si>
+  <si>
+    <t>1DS15IS003</t>
   </si>
 </sst>
 </file>
@@ -921,7 +942,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -1932,6 +1953,47 @@
         <v>180</v>
       </c>
     </row>
+    <row r="25" outlineLevel="0">
+      <c r="A25" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -58,10 +58,10 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/8/2018, 2:59:37 PM</t>
-  </si>
-  <si>
-    <t>49.206.14.83,::ffff:10.10.11.196,::ffff:10.10.10.15</t>
+    <t>9/8/2018, 3:33:45 PM</t>
+  </si>
+  <si>
+    <t>49.206.14.83,::ffff:10.10.11.196,::ffff:10.10.10.53</t>
   </si>
   <si>
     <t>Sound Regeneration using GAN's</t>
@@ -76,6 +76,39 @@
     <t>Secured certificates and marksheets using blockchain</t>
   </si>
   <si>
+    <t>1DS15IS901</t>
+  </si>
+  <si>
+    <t>1DS15IS902</t>
+  </si>
+  <si>
+    <t>1DS15IS903</t>
+  </si>
+  <si>
+    <t>1DS15IS904</t>
+  </si>
+  <si>
+    <t>9/8/2018, 3:35:07 PM</t>
+  </si>
+  <si>
+    <t>Live object detection in videos using CNN</t>
+  </si>
+  <si>
+    <t>1DS15IS911</t>
+  </si>
+  <si>
+    <t>1DS15IS912</t>
+  </si>
+  <si>
+    <t>1DS15IS913</t>
+  </si>
+  <si>
+    <t>1DS15IS914</t>
+  </si>
+  <si>
+    <t>9/8/2018, 3:35:14 PM</t>
+  </si>
+  <si>
     <t>1DS15IS801</t>
   </si>
   <si>
@@ -86,93 +119,6 @@
   </si>
   <si>
     <t>1DS15IS804</t>
-  </si>
-  <si>
-    <t>9/8/2018, 3:00:03 PM</t>
-  </si>
-  <si>
-    <t>49.206.14.83,::ffff:10.10.11.196,::ffff:10.10.10.31</t>
-  </si>
-  <si>
-    <t>1DS15IS901</t>
-  </si>
-  <si>
-    <t>1DS15IS902</t>
-  </si>
-  <si>
-    <t>1DS15IS903</t>
-  </si>
-  <si>
-    <t>1DS15IS904</t>
-  </si>
-  <si>
-    <t>9/8/2018, 3:02:04 PM</t>
-  </si>
-  <si>
-    <t>49.206.14.83,::ffff:10.10.10.247,::ffff:10.10.10.15</t>
-  </si>
-  <si>
-    <t>An efficient algorithm to recognize the License plate of the vehicle.</t>
-  </si>
-  <si>
-    <t>Ms. KRUPASHANKARI .S.S</t>
-  </si>
-  <si>
-    <t>Text Detection in Images Using Python</t>
-  </si>
-  <si>
-    <t>Offline signature verification system</t>
-  </si>
-  <si>
-    <t>1DS15IS811</t>
-  </si>
-  <si>
-    <t>1DS15IS812</t>
-  </si>
-  <si>
-    <t>1DS15IS813</t>
-  </si>
-  <si>
-    <t>1DS15IS814</t>
-  </si>
-  <si>
-    <t>9/8/2018, 3:03:03 PM</t>
-  </si>
-  <si>
-    <t>49.206.14.83,::ffff:10.10.11.196,::ffff:10.10.10.254</t>
-  </si>
-  <si>
-    <t>Image Compression Using Wavelet Approach</t>
-  </si>
-  <si>
-    <t>1DS15IS821</t>
-  </si>
-  <si>
-    <t>1DS15IS822</t>
-  </si>
-  <si>
-    <t>1DS15IS823</t>
-  </si>
-  <si>
-    <t>1DS15IS824</t>
-  </si>
-  <si>
-    <t>9/8/2018, 3:03:28 PM</t>
-  </si>
-  <si>
-    <t>49.206.14.83,::ffff:10.10.10.247,::ffff:10.10.10.53</t>
-  </si>
-  <si>
-    <t>1DS15IS911</t>
-  </si>
-  <si>
-    <t>1DS15IS912</t>
-  </si>
-  <si>
-    <t>1DS15IS913</t>
-  </si>
-  <si>
-    <t>1DS15IS914</t>
   </si>
 </sst>
 </file>
@@ -537,7 +483,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -654,7 +600,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>18</v>
@@ -663,19 +609,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>17</v>
@@ -698,131 +644,87 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="L4" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="M4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s" s="0">
+      <c r="N4" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>39</v>
       </c>
     </row>
     <row r="5" outlineLevel="0">
       <c r="A5" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="0">
-      <c r="A6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="N6" t="s" s="0">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -58,67 +58,40 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/8/2018, 3:33:45 PM</t>
-  </si>
-  <si>
-    <t>49.206.14.83,::ffff:10.10.11.196,::ffff:10.10.10.53</t>
-  </si>
-  <si>
-    <t>Sound Regeneration using GAN's</t>
+    <t>9/8/2018, 6:43:51 PM</t>
+  </si>
+  <si>
+    <t>nischal@nthacks.com</t>
+  </si>
+  <si>
+    <t>automatic street lighting using IOT</t>
+  </si>
+  <si>
+    <t>Ms. CHANDRAKALA B.M.</t>
+  </si>
+  <si>
+    <t>Blockchain in PDS and rural industries</t>
   </si>
   <si>
     <t>Ms. SHARON CHRISTA I.L</t>
   </si>
   <si>
-    <t>Blockchain in PDS and rural industries</t>
-  </si>
-  <si>
-    <t>Secured certificates and marksheets using blockchain</t>
-  </si>
-  <si>
-    <t>1DS15IS901</t>
-  </si>
-  <si>
-    <t>1DS15IS902</t>
-  </si>
-  <si>
-    <t>1DS15IS903</t>
-  </si>
-  <si>
-    <t>1DS15IS904</t>
-  </si>
-  <si>
-    <t>9/8/2018, 3:35:07 PM</t>
-  </si>
-  <si>
-    <t>Live object detection in videos using CNN</t>
-  </si>
-  <si>
-    <t>1DS15IS911</t>
-  </si>
-  <si>
-    <t>1DS15IS912</t>
-  </si>
-  <si>
-    <t>1DS15IS913</t>
-  </si>
-  <si>
-    <t>1DS15IS914</t>
-  </si>
-  <si>
-    <t>9/8/2018, 3:35:14 PM</t>
-  </si>
-  <si>
-    <t>1DS15IS801</t>
-  </si>
-  <si>
-    <t>1DS15IS802</t>
-  </si>
-  <si>
-    <t>1DS15IS803</t>
-  </si>
-  <si>
-    <t>1DS15IS804</t>
+    <t>Advance Predictive Machine learning model using deep learning</t>
+  </si>
+  <si>
+    <t>Dr. SUNANDA DIXIT</t>
+  </si>
+  <si>
+    <t>1DS15IS907</t>
+  </si>
+  <si>
+    <t>1DS15IS919</t>
+  </si>
+  <si>
+    <t>1DS15IS922</t>
+  </si>
+  <si>
+    <t>1DS15IS925</t>
   </si>
 </sst>
 </file>
@@ -483,7 +456,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -574,157 +547,25 @@
         <v>18</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" outlineLevel="0">
-      <c r="A3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" outlineLevel="0">
-      <c r="A4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="0">
-      <c r="A5" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -58,40 +58,40 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/8/2018, 6:43:51 PM</t>
+    <t>9/9/2018, 5:58:55 AM</t>
   </si>
   <si>
     <t>nischal@nthacks.com</t>
   </si>
   <si>
-    <t>automatic street lighting using IOT</t>
-  </si>
-  <si>
-    <t>Ms. CHANDRAKALA B.M.</t>
-  </si>
-  <si>
-    <t>Blockchain in PDS and rural industries</t>
+    <t>Sound Regeneration using GAN's</t>
   </si>
   <si>
     <t>Ms. SHARON CHRISTA I.L</t>
   </si>
   <si>
-    <t>Advance Predictive Machine learning model using deep learning</t>
+    <t>Intelligent theft managment system using image processing technique</t>
+  </si>
+  <si>
+    <t>Mr. DHEEMANTH URS</t>
+  </si>
+  <si>
+    <t>3D model construction using multiple 2 D images</t>
   </si>
   <si>
     <t>Dr. SUNANDA DIXIT</t>
   </si>
   <si>
-    <t>1DS15IS907</t>
-  </si>
-  <si>
-    <t>1DS15IS919</t>
-  </si>
-  <si>
-    <t>1DS15IS922</t>
-  </si>
-  <si>
-    <t>1DS15IS925</t>
+    <t>1DS15IS801</t>
+  </si>
+  <si>
+    <t>1DS15IS802</t>
+  </si>
+  <si>
+    <t>1DS15IS803</t>
+  </si>
+  <si>
+    <t>1DS15IS804</t>
   </si>
 </sst>
 </file>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -58,40 +58,40 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/9/2018, 5:58:55 AM</t>
-  </si>
-  <si>
-    <t>nischal@nthacks.com</t>
-  </si>
-  <si>
-    <t>Sound Regeneration using GAN's</t>
-  </si>
-  <si>
-    <t>Ms. SHARON CHRISTA I.L</t>
-  </si>
-  <si>
-    <t>Intelligent theft managment system using image processing technique</t>
-  </si>
-  <si>
-    <t>Mr. DHEEMANTH URS</t>
-  </si>
-  <si>
-    <t>3D model construction using multiple 2 D images</t>
-  </si>
-  <si>
-    <t>Dr. SUNANDA DIXIT</t>
-  </si>
-  <si>
-    <t>1DS15IS801</t>
-  </si>
-  <si>
-    <t>1DS15IS802</t>
-  </si>
-  <si>
-    <t>1DS15IS803</t>
-  </si>
-  <si>
-    <t>1DS15IS804</t>
+    <t>9/9/2018, 7:34:16 AM</t>
+  </si>
+  <si>
+    <t>svmasdhruthi@gmail.com</t>
+  </si>
+  <si>
+    <t>Chatbots in educational system</t>
+  </si>
+  <si>
+    <t>Ms. MADHURA J.</t>
+  </si>
+  <si>
+    <t>Detecting fraud apps using sentiment analysis</t>
+  </si>
+  <si>
+    <t>Mr. SURESHKUMAR M.</t>
+  </si>
+  <si>
+    <t>Web based library management system using angular and springboot</t>
+  </si>
+  <si>
+    <t>Ms. CHANDRAKALA B.M.</t>
+  </si>
+  <si>
+    <t>1DS15IS026</t>
+  </si>
+  <si>
+    <t>1DS15IS046</t>
+  </si>
+  <si>
+    <t>1DS15IS053</t>
+  </si>
+  <si>
+    <t>1DS15IS057</t>
   </si>
 </sst>
 </file>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -58,40 +58,544 @@
     <t>USN4</t>
   </si>
   <si>
-    <t>9/9/2018, 7:34:16 AM</t>
-  </si>
-  <si>
-    <t>svmasdhruthi@gmail.com</t>
+    <t>9/9/2018, 7:50:48 AM</t>
+  </si>
+  <si>
+    <t>krishnav789@gmail.com</t>
+  </si>
+  <si>
+    <t>Live object detection in videos using CNN</t>
+  </si>
+  <si>
+    <t>Ms. SHARON CHRISTA I.L</t>
+  </si>
+  <si>
+    <t>Tracking multiple objects using deep learning techniques</t>
+  </si>
+  <si>
+    <t>Ms. LATHA A.P.</t>
+  </si>
+  <si>
+    <t>Detection and Classification of CT images for abnormalities using machine learning techniques</t>
+  </si>
+  <si>
+    <t>Ms. BHAVANI K.</t>
+  </si>
+  <si>
+    <t>1DS15IS035</t>
+  </si>
+  <si>
+    <t>1DS15IS016</t>
+  </si>
+  <si>
+    <t>1DS15IS004</t>
+  </si>
+  <si>
+    <t>1DS15IS027</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:50:55 AM</t>
+  </si>
+  <si>
+    <t>ray.niharika01@gmail.com</t>
+  </si>
+  <si>
+    <t>Sound Regeneration using GAN's</t>
+  </si>
+  <si>
+    <t>Blockchain in PDS and rural industries</t>
+  </si>
+  <si>
+    <t>Secured certificates and marksheets using blockchain</t>
+  </si>
+  <si>
+    <t>1DS15IS125</t>
+  </si>
+  <si>
+    <t>1DS15IS126</t>
+  </si>
+  <si>
+    <t>1DS15IS092</t>
+  </si>
+  <si>
+    <t>1DS15IS118</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:08 AM</t>
+  </si>
+  <si>
+    <t>ramyashekar675@gmail.com</t>
+  </si>
+  <si>
+    <t>IoT for secure living styles in human society</t>
+  </si>
+  <si>
+    <t>Ms. BINDU BHARGAVI S.M</t>
+  </si>
+  <si>
+    <t>3D model construction using multiple 2 D images</t>
+  </si>
+  <si>
+    <t>Dr. SUNANDA DIXIT</t>
+  </si>
+  <si>
+    <t>Text Detection in Images Using Python</t>
+  </si>
+  <si>
+    <t>Ms. KRUPASHANKARI .S.S</t>
+  </si>
+  <si>
+    <t>1DS16IS400</t>
+  </si>
+  <si>
+    <t>1DS16IS401</t>
+  </si>
+  <si>
+    <t>1DS16IS413</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:21 AM</t>
+  </si>
+  <si>
+    <t>gauravroy99@gmail.com</t>
+  </si>
+  <si>
+    <t>Natural Language Processing using Tensor Flow</t>
+  </si>
+  <si>
+    <t>Segmentation and analysis of CT images for abnormality detection</t>
+  </si>
+  <si>
+    <t>1DS15IS028</t>
+  </si>
+  <si>
+    <t>1DS15IS018</t>
+  </si>
+  <si>
+    <t>1DS15IS049</t>
+  </si>
+  <si>
+    <t>1DS15IS023</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:27 AM</t>
+  </si>
+  <si>
+    <t>sumukhp103@gmail.com</t>
+  </si>
+  <si>
+    <t>Automatic patient enrolment software for hospitals</t>
+  </si>
+  <si>
+    <t>Mr. DHEEMANTH URS</t>
+  </si>
+  <si>
+    <t>cloud integrated smart attendance system</t>
+  </si>
+  <si>
+    <t>Ms. CHANDRAKALA B.M.</t>
+  </si>
+  <si>
+    <t>Web based library management system using angular and springboot</t>
+  </si>
+  <si>
+    <t>1DS15IS054</t>
+  </si>
+  <si>
+    <t>1DS15IS066</t>
+  </si>
+  <si>
+    <t>1DS15IS081</t>
+  </si>
+  <si>
+    <t>1DS15IS105</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:28 AM</t>
+  </si>
+  <si>
+    <t>bhanuv510@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer behavior prediction using web usage mining</t>
+  </si>
+  <si>
+    <t>Mr. SURESHKUMAR M.</t>
+  </si>
+  <si>
+    <t>Diabetes prediction using data mining</t>
+  </si>
+  <si>
+    <t>Data Analysis as a Web Service: A Case Study Using IOT Sensor Data</t>
+  </si>
+  <si>
+    <t>Ms. SAHANA M.P</t>
+  </si>
+  <si>
+    <t>1DS15IS007</t>
+  </si>
+  <si>
+    <t>1DS15IS019</t>
+  </si>
+  <si>
+    <t>1DS15IS022</t>
+  </si>
+  <si>
+    <t>1DS15IS025</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:29 AM</t>
+  </si>
+  <si>
+    <t>shrutikavandakudri@gmail.com</t>
+  </si>
+  <si>
+    <t>IOT based real time ambulance tracking </t>
+  </si>
+  <si>
+    <t>IOT for women safety</t>
+  </si>
+  <si>
+    <t>Dr. SUMA V.</t>
+  </si>
+  <si>
+    <t>1DS16IS418</t>
+  </si>
+  <si>
+    <t>1DS16IS419</t>
+  </si>
+  <si>
+    <t>1DS16IS420</t>
+  </si>
+  <si>
+    <t>1DS16IS421</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:36 AM</t>
+  </si>
+  <si>
+    <t>kartikkanungo22@gmail.com</t>
+  </si>
+  <si>
+    <t>Advance Predictive Machine learning model using deep learning</t>
+  </si>
+  <si>
+    <t>automatic control of geyser using arduino and raspbery pi</t>
+  </si>
+  <si>
+    <t>1DS15IS030</t>
+  </si>
+  <si>
+    <t>1DS15IS038</t>
+  </si>
+  <si>
+    <t>1DS15IS040</t>
+  </si>
+  <si>
+    <t>1DS15IS062</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:37 AM</t>
+  </si>
+  <si>
+    <t>sourabbr@gmail.com</t>
+  </si>
+  <si>
+    <t>classification genre of songs</t>
+  </si>
+  <si>
+    <t>1DS15IS061</t>
+  </si>
+  <si>
+    <t>1DS15IS089</t>
+  </si>
+  <si>
+    <t>1DS15IS101</t>
+  </si>
+  <si>
+    <t>1DS15IS104</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:41 AM</t>
+  </si>
+  <si>
+    <t>bhatdev97@gmail.com</t>
+  </si>
+  <si>
+    <t>IOT for better living style </t>
+  </si>
+  <si>
+    <t>1DS15IS130</t>
+  </si>
+  <si>
+    <t>1DS15IS083</t>
+  </si>
+  <si>
+    <t>1DS15IS079</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:43 AM</t>
+  </si>
+  <si>
+    <t>shruthiumashankar5@gmail.com</t>
+  </si>
+  <si>
+    <t>automatic street lighting using IOT</t>
+  </si>
+  <si>
+    <t>1DS15IS094</t>
+  </si>
+  <si>
+    <t>1DS15IS099</t>
+  </si>
+  <si>
+    <t>1DS15IS107</t>
+  </si>
+  <si>
+    <t>1DS15IS112</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:54 AM</t>
+  </si>
+  <si>
+    <t>josh.ananya14@gmail.com</t>
+  </si>
+  <si>
+    <t>Big Data analytics for scientific computing</t>
+  </si>
+  <si>
+    <t>Ms. RADHIKA T. V.</t>
+  </si>
+  <si>
+    <t>Distributed computing technologies and security issues in Big Data analytics</t>
+  </si>
+  <si>
+    <t>1DS15IS072</t>
+  </si>
+  <si>
+    <t>1DS15IS078</t>
+  </si>
+  <si>
+    <t>1DS15IS090</t>
+  </si>
+  <si>
+    <t>1DS15IS128</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:55 AM</t>
+  </si>
+  <si>
+    <t>trivenipujar27@gmail.com</t>
+  </si>
+  <si>
+    <t>Paperless tickets for indian transportation system</t>
+  </si>
+  <si>
+    <t>1DS15IS070</t>
+  </si>
+  <si>
+    <t>1DS15IS073</t>
+  </si>
+  <si>
+    <t>1DS15IS106</t>
+  </si>
+  <si>
+    <t>1DS15IS114</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:56 AM</t>
+  </si>
+  <si>
+    <t>riya.agarwal197@gmail.com</t>
+  </si>
+  <si>
+    <t>Chatbot for career guidance using AI</t>
+  </si>
+  <si>
+    <t>Image Compression Using Wavelet Approach</t>
+  </si>
+  <si>
+    <t>1DS15IS074</t>
+  </si>
+  <si>
+    <t>1DS15IS075</t>
+  </si>
+  <si>
+    <t>1DS15IS076</t>
+  </si>
+  <si>
+    <t>1DS15IS084</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:51:57 AM</t>
+  </si>
+  <si>
+    <t>swapnil.shobhit@gmail.com</t>
+  </si>
+  <si>
+    <t>1DS15IS111</t>
+  </si>
+  <si>
+    <t>1DS15IS103</t>
+  </si>
+  <si>
+    <t>1DS15IS109</t>
+  </si>
+  <si>
+    <t>1DS15IS110</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:52:02 AM</t>
+  </si>
+  <si>
+    <t>surajguru83@gmail.com</t>
+  </si>
+  <si>
+    <t>Design of Biometric Recognition Software Based on Image Processing</t>
+  </si>
+  <si>
+    <t>Ms. MADHURA J.</t>
+  </si>
+  <si>
+    <t>1DS15IS108</t>
+  </si>
+  <si>
+    <t>1DS15IS113</t>
+  </si>
+  <si>
+    <t>1DS15IS086</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:52:03 AM</t>
+  </si>
+  <si>
+    <t>109amisha.96@gmail.com</t>
+  </si>
+  <si>
+    <t>Agricultural Plant disease prediction system</t>
+  </si>
+  <si>
+    <t>Dr. RAJESHWARI .J</t>
+  </si>
+  <si>
+    <t>1DS15IS006</t>
+  </si>
+  <si>
+    <t>1DS15IS008</t>
+  </si>
+  <si>
+    <t>1DS15IS009</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:52:24 AM</t>
+  </si>
+  <si>
+    <t>juhi0595@gmail.com</t>
+  </si>
+  <si>
+    <t>An efficient algorithm to recognize the License plate of the vehicle.</t>
+  </si>
+  <si>
+    <t>Offline signature verification system</t>
   </si>
   <si>
     <t>Chatbots in educational system</t>
   </si>
   <si>
-    <t>Ms. MADHURA J.</t>
-  </si>
-  <si>
-    <t>Detecting fraud apps using sentiment analysis</t>
-  </si>
-  <si>
-    <t>Mr. SURESHKUMAR M.</t>
-  </si>
-  <si>
-    <t>Web based library management system using angular and springboot</t>
-  </si>
-  <si>
-    <t>Ms. CHANDRAKALA B.M.</t>
-  </si>
-  <si>
-    <t>1DS15IS026</t>
-  </si>
-  <si>
-    <t>1DS15IS046</t>
-  </si>
-  <si>
-    <t>1DS15IS053</t>
-  </si>
-  <si>
-    <t>1DS15IS057</t>
+    <t>1DS15IS001</t>
+  </si>
+  <si>
+    <t>1DS15IS020</t>
+  </si>
+  <si>
+    <t>1DS15IS021</t>
+  </si>
+  <si>
+    <t>1DS15IS034</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:52:47 AM</t>
+  </si>
+  <si>
+    <t>nishekhgowda143@gmail.com</t>
+  </si>
+  <si>
+    <t>Computer network security issues and measures to avoid it</t>
+  </si>
+  <si>
+    <t>Ms. SONALI JOYCE LOBO</t>
+  </si>
+  <si>
+    <t>Avoiding Excessive Power Consumption by avoiding security Attacks in Networks </t>
+  </si>
+  <si>
+    <t>Network Security in Mobile Networks</t>
+  </si>
+  <si>
+    <t>Dr. RAMAMOHAN BABU K. N</t>
+  </si>
+  <si>
+    <t>1DS16IS411</t>
+  </si>
+  <si>
+    <t>1DS16IS406</t>
+  </si>
+  <si>
+    <t>1DS15IS003</t>
+  </si>
+  <si>
+    <t>1DS15IS017</t>
+  </si>
+  <si>
+    <t>vanipriyanka271997@gmail.com</t>
+  </si>
+  <si>
+    <t>Reducing the accidents based on pedestrian detection system </t>
+  </si>
+  <si>
+    <t>smartphone app develops an instant translation of a Indian street sign</t>
+  </si>
+  <si>
+    <t>An Efficient and Secured Data Storage technique  in  cloud</t>
+  </si>
+  <si>
+    <t>Ms. VAIDEHI M</t>
+  </si>
+  <si>
+    <t>1DS15IS093</t>
+  </si>
+  <si>
+    <t>1DS15IS117</t>
+  </si>
+  <si>
+    <t>1DS15IS127</t>
+  </si>
+  <si>
+    <t>1DS15IS055</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:53:11 AM</t>
+  </si>
+  <si>
+    <t>vishwas.g.pai@gmail.com</t>
+  </si>
+  <si>
+    <t>Virtual Lab</t>
+  </si>
+  <si>
+    <t>Dynamic resource allocation and scheduling techniques/algorithms in cloud computing environment</t>
+  </si>
+  <si>
+    <t>1DS15IS121</t>
+  </si>
+  <si>
+    <t>1DS15IS123</t>
+  </si>
+  <si>
+    <t>1DS15IS124</t>
+  </si>
+  <si>
+    <t>1DS15IS116</t>
   </si>
 </sst>
 </file>
@@ -456,7 +960,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -568,6 +1072,874 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3" outlineLevel="0">
+      <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" outlineLevel="0">
+      <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="0">
+      <c r="A5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" outlineLevel="0">
+      <c r="A6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="0">
+      <c r="A7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" outlineLevel="0">
+      <c r="A8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" outlineLevel="0">
+      <c r="A9" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" outlineLevel="0">
+      <c r="A10" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="0">
+      <c r="A11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" outlineLevel="0">
+      <c r="A12" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" outlineLevel="0">
+      <c r="A13" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" outlineLevel="0">
+      <c r="A14" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" outlineLevel="0">
+      <c r="A15" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="N15" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="0">
+      <c r="A16" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="N16" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" outlineLevel="0">
+      <c r="A17" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" outlineLevel="0">
+      <c r="A18" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" outlineLevel="0">
+      <c r="A19" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" outlineLevel="0">
+      <c r="A20" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="N20" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="0">
+      <c r="A21" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="N21" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" outlineLevel="0">
+      <c r="A22" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="N22" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -596,6 +596,135 @@
   </si>
   <si>
     <t>1DS15IS116</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:53:47 AM</t>
+  </si>
+  <si>
+    <t>sandhyashankar256@gmail.com</t>
+  </si>
+  <si>
+    <t>Drought prediction using wireless sensor networks</t>
+  </si>
+  <si>
+    <t>Priority based optimal resource reservation mechanism in constrained Networks for IOT applications</t>
+  </si>
+  <si>
+    <t>Ms. SHALINI K.B</t>
+  </si>
+  <si>
+    <t>1DS15IS082</t>
+  </si>
+  <si>
+    <t>1DS15IS069</t>
+  </si>
+  <si>
+    <t>1DS15IS071</t>
+  </si>
+  <si>
+    <t>1DS15IS087</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:55:06 AM</t>
+  </si>
+  <si>
+    <t>ks.sanjetha@gmail.com</t>
+  </si>
+  <si>
+    <t>Automatic  Signboard detection system by the vehicle</t>
+  </si>
+  <si>
+    <t>1DS15IS129</t>
+  </si>
+  <si>
+    <t>1DS15IS039</t>
+  </si>
+  <si>
+    <t>1DS15IS045</t>
+  </si>
+  <si>
+    <t>1DS15IS056</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:55:17 AM</t>
+  </si>
+  <si>
+    <t>hkpin2@gmail.com</t>
+  </si>
+  <si>
+    <t>1DS15IS031</t>
+  </si>
+  <si>
+    <t>1DS15IS032</t>
+  </si>
+  <si>
+    <t>1DS15IS041</t>
+  </si>
+  <si>
+    <t>1DS15IS014</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:56:15 AM</t>
+  </si>
+  <si>
+    <t>svmasdhruthi@gmail.com</t>
+  </si>
+  <si>
+    <t>1DS15IS026</t>
+  </si>
+  <si>
+    <t>1DS15IS046</t>
+  </si>
+  <si>
+    <t>1DS15IS053</t>
+  </si>
+  <si>
+    <t>1DS15IS057</t>
+  </si>
+  <si>
+    <t>9/9/2018, 7:58:25 AM</t>
+  </si>
+  <si>
+    <t>snigdha.snigz@gmail.com</t>
+  </si>
+  <si>
+    <t>Dynamic Clustering-Based Method for Shape Recognition and Retrieval</t>
+  </si>
+  <si>
+    <t>Mr. MUZAMEEL AHMED</t>
+  </si>
+  <si>
+    <t>Contour Based Shape Retrieval and Recognition</t>
+  </si>
+  <si>
+    <t>1DS15IS100</t>
+  </si>
+  <si>
+    <t>1DS15IS096</t>
+  </si>
+  <si>
+    <t>1DS15IS091</t>
+  </si>
+  <si>
+    <t>1DS15IS120</t>
+  </si>
+  <si>
+    <t>9/9/2018, 8:01:23 AM</t>
+  </si>
+  <si>
+    <t>meghanabk97pro@gmail.com</t>
+  </si>
+  <si>
+    <t>1DS15IS050</t>
+  </si>
+  <si>
+    <t>1DS15IS051</t>
+  </si>
+  <si>
+    <t>1DS15IS013</t>
+  </si>
+  <si>
+    <t>1DS15IS064</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1089,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -1940,6 +2069,270 @@
         <v>193</v>
       </c>
     </row>
+    <row r="23" outlineLevel="0">
+      <c r="A23" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="N23" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" outlineLevel="0">
+      <c r="A24" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" outlineLevel="0">
+      <c r="A25" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="N25" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" outlineLevel="0">
+      <c r="A26" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="N26" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" outlineLevel="0">
+      <c r="A27" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="N27" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" outlineLevel="0">
+      <c r="A28" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="M28" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="N28" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exports/registrations.xlsx
+++ b/exports/registrations.xlsx
@@ -19,10 +19,10 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Project Title</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Allotted Project Title</t>
   </si>
   <si>
     <t>Guide</t>
